--- a/datos_william.xlsx
+++ b/datos_william.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -503,17 +503,17 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Otros (objeto)</t>
+          <t>PRESTACIONES SOCIALES</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>13363851106258.73</v>
+        <v>14028081135446.17</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>GASTOS DE PERSONAL</t>
+          <t>TRANSFERENCIAS CORRIENTES</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -522,67 +522,37 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>12703036721210.52</v>
+        <v>13363851106258.73</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>TRANSFERENCIAS CORRIENTES</t>
+          <t>GASTOS DE PERSONAL</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>PRESTACIONES SOCIALES RELACIONADAS CON EL EMPLEO</t>
+          <t>Otros (objeto)</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>7167505173836.359</v>
+        <v>12703036721210.52</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>TRANSFERENCIAS CORRIENTES</t>
+          <t>Otros (cuenta)</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>PRESTACIONES SOCIALES ASUMIDAS POR EL GOBIERNO</t>
+          <t>Otros (objeto)</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>6194915365337.629</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>Otros (cuenta)</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>Otros (objeto)</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
         <v>3609185516345.867</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>TRANSFERENCIAS CORRIENTES</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>PRESTACIONES DE ASISTENCIA SOCIAL</t>
-        </is>
-      </c>
-      <c r="C10" t="n">
-        <v>665660596272.1841</v>
       </c>
     </row>
   </sheetData>
